--- a/présentation/Organisation.xlsx
+++ b/présentation/Organisation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Antoine/Documents/FAC/Semestre 2/CSF/projet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Antoine/Documents/GitHub/Projet_CSF/présentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6D446E-5030-0247-99C8-DB54FDBD7F23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste" sheetId="1" r:id="rId1"/>
@@ -17,13 +18,13 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Liste!$6:$6</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <b/>
@@ -290,7 +291,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Tâches" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Tâches" pivot="0" count="3">
+    <tableStyle name="Tâches" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstColumn" dxfId="3"/>
@@ -308,12 +309,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tâches" displayName="Tâches" ref="B6:D49" totalsRowShown="0">
-  <autoFilter ref="B6:D49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tâches" displayName="Tâches" ref="B6:D49" totalsRowShown="0">
+  <autoFilter ref="B6:D49" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE" dataDxfId="2"/>
-    <tableColumn id="2" name="ÉLÉMENT" dataDxfId="1"/>
-    <tableColumn id="3" name="NOTES" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ÉLÉMENT" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NOTES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Tâches" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -586,15 +587,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -760,12 +761,8 @@
       <c r="B21" s="11">
         <v>43560</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="11">
@@ -785,8 +782,12 @@
       <c r="B24" s="11">
         <v>43563</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11">
